--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3055570.355979119</v>
+        <v>3131100.025643923</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>140.2067433295011</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>2.056772995494787</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>49.38957925603694</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>168.7756050755991</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>33.87173682670821</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>180.4226922742518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.31590541686252</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>139.2886326231161</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>236.0502377560822</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>27.64309257197499</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.95103447287302</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>57.73629588331731</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.1661384044145893</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274201</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174121</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.2937831187355</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>192.6211591710428</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2002,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>80.13868705706803</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>15.93285474807282</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>71.92830844232969</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>234.5175081001676</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896906</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>190.7955476484028</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>22.42494054429003</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>49.8881186665168</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>112.8722262355888</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>134.4677178074603</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.96451678969</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>140.5678108961688</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>186.3947190079514</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051972</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>81.25284691325943</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>207.2045317851313</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>73.23290015944603</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>71.47286448826321</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4153,7 +4155,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>143.6235551937893</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>189.8731478615594</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4363,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2555.52611795812</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.06035969704</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.921027721229</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>343.360151857325</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770189</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1550.100961840373</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2662.935215435689</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2662.935215435689</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2662.935215435689</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2662.935215435689</v>
+        <v>2120.09179259309</v>
       </c>
       <c r="V5" t="n">
-        <v>2662.935215435689</v>
+        <v>2120.09179259309</v>
       </c>
       <c r="W5" t="n">
-        <v>2310.166560165575</v>
+        <v>1767.323137322976</v>
       </c>
       <c r="X5" t="n">
-        <v>1936.700801904495</v>
+        <v>1767.323137322976</v>
       </c>
       <c r="Y5" t="n">
-        <v>1936.700801904495</v>
+        <v>1377.183805347164</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>702.55736257324</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X7" t="n">
-        <v>702.55736257324</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="C8" t="n">
-        <v>1865.381229508782</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D8" t="n">
-        <v>1507.115530902032</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E8" t="n">
-        <v>1121.327278303787</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>710.3413735141798</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>292.3775654123667</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2438.020598133618</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2438.020598133618</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2106.957710790048</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1754.189055519934</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1380.723297258854</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>990.5839652830421</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>262.3791120239298</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="C10" t="n">
-        <v>262.3791120239298</v>
+        <v>411.0461427127116</v>
       </c>
       <c r="D10" t="n">
-        <v>112.2624726115941</v>
+        <v>260.9295033003758</v>
       </c>
       <c r="E10" t="n">
-        <v>112.2624726115941</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>112.2624726115941</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>112.2624726115941</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541695</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541695</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X10" t="n">
-        <v>444.0275768541695</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y10" t="n">
-        <v>444.0275768541695</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,31 +5059,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147079</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211718</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>966.6932390011332</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>1771.104817265284</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.748453987787</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1274.963038777292</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>985.8343999908507</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>985.8343999908507</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>696.41722995389</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805483</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822475</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555226</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619865</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.623401105981</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.8460027287425</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>653.8460027287425</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909233</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909233</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.055751909233</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W16" t="n">
-        <v>874.6385818722727</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X16" t="n">
-        <v>874.6385818722727</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y16" t="n">
-        <v>653.8460027287425</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5534,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>966.693239001134</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1106.972988290767</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>817.8443495043257</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5731,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,19 +5834,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>2013.406634128704</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O21" t="n">
-        <v>2292.946699347402</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.9054447954967</v>
+        <v>282.2470670630138</v>
       </c>
       <c r="C22" t="n">
-        <v>130.9054447954967</v>
+        <v>113.3108841351069</v>
       </c>
       <c r="D22" t="n">
-        <v>130.9054447954967</v>
+        <v>113.3108841351069</v>
       </c>
       <c r="E22" t="n">
-        <v>130.9054447954967</v>
+        <v>113.3108841351069</v>
       </c>
       <c r="F22" t="n">
-        <v>130.9054447954967</v>
+        <v>113.3108841351069</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>113.3108841351069</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324574</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954967</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="X22" t="n">
-        <v>130.9054447954967</v>
+        <v>503.0396462065439</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.9054447954967</v>
+        <v>282.2470670630138</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636247</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>765.2096374174361</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>765.2096374174361</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>615.0929980051003</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>467.1799044227072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>320.2899569247968</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6148,49 +6150,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609662</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V25" t="n">
-        <v>986.0022165609662</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W25" t="n">
-        <v>986.0022165609662</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X25" t="n">
-        <v>986.0022165609662</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y25" t="n">
-        <v>765.2096374174361</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6251,25 +6253,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>3400.7765748652</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>3959.29649689213</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>4035.871893885153</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>4035.871893885153</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>3885.755254472818</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>3885.755254472818</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1306.193495155475</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U28" t="n">
-        <v>1017.064856369034</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>4325.289063922114</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>4035.871893885153</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>4035.871893885153</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>4035.871893885153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011336</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.977845975556</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>761.0055017299131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>761.0055017299131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.787631771461</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X31" t="n">
-        <v>981.7980808734433</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>761.0055017299131</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6716,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>3033.644633014775</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>3633.388343841292</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>3963.250971505325</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>4242.791036724022</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>506.0324822735073</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C34" t="n">
-        <v>506.0324822735073</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D34" t="n">
-        <v>506.0324822735073</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E34" t="n">
-        <v>358.1193886911142</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>211.2294411932038</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6886,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1363.090292974609</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1363.090292974609</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>1363.090292974609</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150548</v>
+        <v>1363.090292974609</v>
       </c>
       <c r="X34" t="n">
-        <v>726.8250614170374</v>
+        <v>1135.100742076592</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.0324822735073</v>
+        <v>914.3081629330617</v>
       </c>
     </row>
     <row r="35">
@@ -6923,49 +6925,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>485.4047026089419</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>732.1698305154059</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1039.489963795367</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.1357418247858</v>
+        <v>3904.376443449035</v>
       </c>
       <c r="C37" t="n">
-        <v>964.1357418247858</v>
+        <v>3904.376443449035</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>3904.376443449035</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>4561.501975628692</v>
       </c>
       <c r="U37" t="n">
-        <v>964.1357418247858</v>
+        <v>4561.501975628692</v>
       </c>
       <c r="V37" t="n">
-        <v>964.1357418247858</v>
+        <v>4306.817487422805</v>
       </c>
       <c r="W37" t="n">
-        <v>964.1357418247858</v>
+        <v>4306.817487422805</v>
       </c>
       <c r="X37" t="n">
-        <v>964.1357418247858</v>
+        <v>4306.817487422805</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.1357418247858</v>
+        <v>4086.024908279275</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,49 +7162,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514064</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7239,31 +7241,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
         <v>1808.163466324677</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>711.072954880832</v>
+        <v>4334.202995919601</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>4334.202995919601</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>4184.086356507265</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>4036.173262924872</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426962</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746782</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294725</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916673</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380583</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625194</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636323</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403506</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431054</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436451</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042134</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>4637.069157803797</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>4637.069157803797</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>4554.995575063131</v>
       </c>
       <c r="W40" t="n">
-        <v>920.3704617344999</v>
+        <v>4554.995575063131</v>
       </c>
       <c r="X40" t="n">
-        <v>711.072954880832</v>
+        <v>4554.995575063131</v>
       </c>
       <c r="Y40" t="n">
-        <v>711.072954880832</v>
+        <v>4334.202995919601</v>
       </c>
     </row>
     <row r="41">
@@ -7391,22 +7393,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>846.3978353108171</v>
+        <v>807.0580565471719</v>
       </c>
       <c r="C43" t="n">
-        <v>677.4616523829102</v>
+        <v>638.121873619265</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705744</v>
+        <v>488.0052342069292</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7600,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>920.3704617344999</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>920.3704617344999</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y43" t="n">
-        <v>920.3704617344999</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,34 +7633,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7667,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4334.202995919603</v>
+        <v>4244.714639971548</v>
       </c>
       <c r="C46" t="n">
-        <v>4334.202995919603</v>
+        <v>4075.778457043641</v>
       </c>
       <c r="D46" t="n">
-        <v>4184.086356507268</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="E46" t="n">
-        <v>4036.173262924875</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426964</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746785</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I46" t="n">
         <v>3459.155393916676</v>
@@ -7828,28 +7830,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T46" t="n">
-        <v>4525.994054365623</v>
+        <v>4715.780274838748</v>
       </c>
       <c r="U46" t="n">
-        <v>4525.994054365623</v>
+        <v>4715.780274838748</v>
       </c>
       <c r="V46" t="n">
-        <v>4334.202995919603</v>
+        <v>4715.780274838748</v>
       </c>
       <c r="W46" t="n">
-        <v>4334.202995919603</v>
+        <v>4426.363104801787</v>
       </c>
       <c r="X46" t="n">
-        <v>4334.202995919603</v>
+        <v>4426.363104801787</v>
       </c>
       <c r="Y46" t="n">
-        <v>4334.202995919603</v>
+        <v>4426.363104801787</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>73.53204524670161</v>
+        <v>28.1226370626303</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119854</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503179</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>148.274714356655</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>306.1147370139952</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>38.86002301949887</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>113.6026921294536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>253.7371603504728</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>159.0121003135246</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>43.65987261462459</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,10 +10433,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>295.3773510571262</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>199.6230805871097</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711629</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10904,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -10923,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>176.7176547498456</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11376,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>381.373976065775</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>197.7546715791887</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23658,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>38.32168989947684</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>33.08849621799436</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>141.4088740013212</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>133.1420986615188</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>132.9809736194633</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>94.56526002104789</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24418,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>51.71984429840975</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>30.75201340998649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>229.712702779538</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>98.72735435169555</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>53.62134222778877</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25126,16 +25128,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>87.07984325092895</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>8.04766212204359</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>35.15284205043784</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>170.8847964105686</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>18.50512360390587</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106.5990800224913</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>74.96109815830596</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>77.92400586459996</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>62.26449546226857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110565</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110565</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="G2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="F2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>645197.9485672199</v>
+      </c>
+      <c r="I2" t="n">
         <v>645197.9485672197</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672195</v>
       </c>
       <c r="J2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="K2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645197.9485672199</v>
+      </c>
+      <c r="O2" t="n">
         <v>645197.9485672197</v>
       </c>
-      <c r="L2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645197.9485672198</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672193</v>
-      </c>
       <c r="P2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.456834916484748e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26401,7 @@
         <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.972237517934415e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,34 +26426,34 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.6075868708</v>
+        <v>22174.6075868706</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687074</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="N4" t="n">
         <v>22174.60758687078</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26473,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-161100.3649264449</v>
+        <v>-161100.3649264451</v>
       </c>
       <c r="C6" t="n">
-        <v>428867.5142880997</v>
+        <v>428867.5142880995</v>
       </c>
       <c r="D6" t="n">
-        <v>428867.5142880999</v>
+        <v>428867.5142880994</v>
       </c>
       <c r="E6" t="n">
-        <v>5875.97855473627</v>
+        <v>5875.978554735833</v>
       </c>
       <c r="F6" t="n">
-        <v>531036.0150316319</v>
+        <v>531036.0150316323</v>
       </c>
       <c r="G6" t="n">
-        <v>531036.0150316324</v>
+        <v>531036.0150316323</v>
       </c>
       <c r="H6" t="n">
-        <v>531036.0150316322</v>
+        <v>531036.0150316325</v>
       </c>
       <c r="I6" t="n">
         <v>531036.0150316324</v>
       </c>
       <c r="J6" t="n">
-        <v>354612.7958390392</v>
+        <v>354612.7958390393</v>
       </c>
       <c r="K6" t="n">
+        <v>531036.0150316322</v>
+      </c>
+      <c r="L6" t="n">
+        <v>531036.0150316322</v>
+      </c>
+      <c r="M6" t="n">
+        <v>396234.9997977951</v>
+      </c>
+      <c r="N6" t="n">
+        <v>531036.0150316325</v>
+      </c>
+      <c r="O6" t="n">
         <v>531036.0150316324</v>
       </c>
-      <c r="L6" t="n">
-        <v>531036.0150316318</v>
-      </c>
-      <c r="M6" t="n">
-        <v>396234.9997977953</v>
-      </c>
-      <c r="N6" t="n">
-        <v>531036.0150316319</v>
-      </c>
-      <c r="O6" t="n">
-        <v>531036.015031632</v>
-      </c>
       <c r="P6" t="n">
-        <v>531036.015031632</v>
+        <v>531036.0150316326</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.215296897418019e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.215296897418019e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.215296897418019e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,34 +26746,34 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.215296897418019e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>209.0342253879119</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>384.1811656605588</v>
       </c>
     </row>
     <row r="3">
@@ -27543,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>97.04438339053223</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>56.25950038248513</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>20.60666574810349</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>70.8014752340375</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.806844538051777</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>86.42102276592109</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>87.87253500827492</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>188.8052277856828</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>76.48292817369615</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28028,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>98.43459295847784</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28819,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.151079231931362e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-8.042479087168223e-14</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -30220,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.215296897418019e-14</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30271,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.676880856393836e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31753,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,31 +32876,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>355.8957474878096</v>
+        <v>310.4863393037384</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081129</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>384.987089538257</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.363702241108</v>
+        <v>462.3874039146948</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714617</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349813</v>
@@ -35963,7 +35965,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
@@ -35975,16 +35977,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>355.3681292881798</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>639.3093104120081</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>245.9534379510236</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>446.7972655274665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>564.161537400939</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36689,10 +36691,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>492.2066737115375</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>605.8017281075926</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>350.1985191750489</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303311</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37868,16 +37870,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>509.9122281478584</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38096,19 +38098,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>663.7376783068831</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315246</v>
@@ -38117,7 +38119,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3131100.025643923</v>
+        <v>3124083.010752211</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>141.6532280708862</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.056772995494787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>49.38957925603694</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>97.6352909288865</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,16 +952,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>180.4226922742518</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>6.90848140332574</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>139.2886326231161</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>27.64309257197499</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>181.1611956319094</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>69.95103447287302</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>49.53862743923861</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1661384044145893</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274201</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.6211591710428</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>80.13868705706803</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>15.93285474807282</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>234.5175081001676</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>22.42494054429003</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>134.4677178074603</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
-        <v>186.3947190079514</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051972</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>276.2330889766189</v>
       </c>
       <c r="V40" t="n">
-        <v>81.25284691325943</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>71.47286448826321</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
-        <v>143.6235551937893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>961.9499065944426</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>603.6842079876922</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>217.8959553894479</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>210.9504546402445</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>197.0270505788354</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>197.0270505788354</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2090.6186503862</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.15289212512</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1715.075343644822</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,19 +4415,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>272.8312459770189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>272.8312459770189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>272.8312459770189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>272.8312459770189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>272.8312459770189</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.5839652830421</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>152.5644878091387</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.09179259309</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.09179259309</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1767.323137322976</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1767.323137322976</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1377.183805347164</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5993065148977</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5993065148977</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148977</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
         <v>99.5995062532301</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230958</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="X7" t="n">
-        <v>268.5993065148977</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.5993065148977</v>
+        <v>721.1507201626711</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>990.5839652830421</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830421</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2438.020598133618</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2438.020598133618</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.957710790048</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1754.189055519934</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1380.723297258854</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>990.5839652830421</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>579.9823256406185</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>411.0461427127116</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>260.9295033003758</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,31 +5059,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N12" t="n">
-        <v>2013.406634128704</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>427.7268833816378</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>258.7907004537309</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>258.7907004537309</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>258.7907004537309</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>258.7907004537309</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>258.7907004537309</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.748453987787</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1274.963038777292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>985.8343999908507</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>985.8343999908507</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W13" t="n">
-        <v>696.41722995389</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="X13" t="n">
-        <v>468.4276790558727</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.6350999123426</v>
+        <v>609.3753482118775</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155903</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805483</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822475</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>731.31772835508</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181194</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5597,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211722</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>966.693239001134</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1966.019627967826</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1106.972988290767</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>817.8443495043257</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>563.1598612984388</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>563.1598612984388</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>282.2470670630138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>113.3108841351069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>113.3108841351069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>113.3108841351069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>113.3108841351069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>113.3108841351069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347409</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141522</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>731.0291971045613</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>503.0396462065439</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>282.2470670630138</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1038.244483529058</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>783.5599953231707</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>494.1428252862101</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>266.1532743881928</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,22 +6244,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>3400.7765748652</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>3959.29649689213</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4035.871893885153</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>4035.871893885153</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>3885.755254472818</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>3885.755254472818</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4325.289063922114</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4035.871893885153</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4035.871893885153</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>4035.871893885153</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6542,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6645,22 +6645,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>130.9054447954967</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3033.644633014775</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3633.388343841292</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3963.250971505325</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4242.791036724022</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>732.6596981028219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1363.090292974609</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1363.090292974609</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>1363.090292974609</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.090292974609</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.100742076592</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>914.3081629330617</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6934,34 +6934,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2361.490124716568</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3904.376443449035</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>3904.376443449035</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3904.376443449035</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3756.463349866642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>4561.501975628692</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4561.501975628692</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>4306.817487422805</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>4306.817487422805</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4306.817487422805</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>4086.024908279275</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,49 +7162,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514064</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4334.202995919601</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>4334.202995919601</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>4184.086356507265</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924872</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746782</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294725</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916673</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380583</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625194</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636323</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403506</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431054</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436451</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042134</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4637.069157803797</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4637.069157803797</v>
+        <v>1219.892948359297</v>
       </c>
       <c r="V40" t="n">
-        <v>4554.995575063131</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W40" t="n">
-        <v>4554.995575063131</v>
+        <v>675.7912901164499</v>
       </c>
       <c r="X40" t="n">
-        <v>4554.995575063131</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y40" t="n">
-        <v>4334.202995919601</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="41">
@@ -7414,7 +7414,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>807.0580565471719</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>638.121873619265</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>488.0052342069292</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>988.7065213774116</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,13 +7666,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4244.714639971548</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>4075.778457043641</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>4715.780274838748</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4715.780274838748</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>4715.780274838748</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>4426.363104801787</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4426.363104801787</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>4426.363104801787</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028825</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>392.1113620226437</v>
       </c>
       <c r="O12" t="n">
-        <v>28.1226370626303</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>180.0237016735866</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>148.274714356655</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>306.1147370139952</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>113.6026921294536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>253.7371603504728</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>43.65987261462459</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>295.3773510571262</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>176.7176547498452</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711629</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>176.7176547498456</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>381.373976065775</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.37520092829752</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.7546715791887</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.08849621799436</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>141.4088740013212</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>132.9809736194633</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>51.71984429840975</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>229.712702779538</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>87.07984325092895</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
-        <v>35.15284205043784</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>10.0042634219584</v>
       </c>
       <c r="V40" t="n">
-        <v>170.8847964105686</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>74.96109815830596</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
-        <v>77.92400586459996</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110562</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110562</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110565</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="H2" t="n">
         <v>645197.9485672192</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="K2" t="n">
         <v>645197.9485672197</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672199</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672197</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672194</v>
       </c>
       <c r="L2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="O2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="P2" t="n">
         <v>645197.9485672197</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>2.456834916484748e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>4.972237517934415e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687075</v>
+      </c>
+      <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="F4" t="n">
-        <v>22174.6075868706</v>
-      </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687074</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687078</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26493,10 +26493,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-161100.3649264451</v>
+        <v>-161100.3649264448</v>
       </c>
       <c r="C6" t="n">
-        <v>428867.5142880995</v>
+        <v>428867.5142880998</v>
       </c>
       <c r="D6" t="n">
-        <v>428867.5142880994</v>
+        <v>428867.5142880996</v>
       </c>
       <c r="E6" t="n">
-        <v>5875.978554735833</v>
+        <v>4901.38729501438</v>
       </c>
       <c r="F6" t="n">
-        <v>531036.0150316323</v>
+        <v>530061.4237719104</v>
       </c>
       <c r="G6" t="n">
-        <v>531036.0150316323</v>
+        <v>530061.4237719104</v>
       </c>
       <c r="H6" t="n">
-        <v>531036.0150316325</v>
+        <v>530061.4237719103</v>
       </c>
       <c r="I6" t="n">
-        <v>531036.0150316324</v>
+        <v>530061.4237719106</v>
       </c>
       <c r="J6" t="n">
-        <v>354612.7958390393</v>
+        <v>353638.2045793174</v>
       </c>
       <c r="K6" t="n">
-        <v>531036.0150316322</v>
+        <v>530061.4237719107</v>
       </c>
       <c r="L6" t="n">
-        <v>531036.0150316322</v>
+        <v>530061.4237719105</v>
       </c>
       <c r="M6" t="n">
-        <v>396234.9997977951</v>
+        <v>395260.4085380734</v>
       </c>
       <c r="N6" t="n">
-        <v>531036.0150316325</v>
+        <v>530061.4237719105</v>
       </c>
       <c r="O6" t="n">
-        <v>531036.0150316324</v>
+        <v>530061.4237719104</v>
       </c>
       <c r="P6" t="n">
-        <v>531036.0150316326</v>
+        <v>530061.4237719106</v>
       </c>
     </row>
   </sheetData>
@@ -26721,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.215296897418019e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.215296897418019e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.215296897418019e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26743,37 +26743,37 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.215296897418019e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>10.27808817397505</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>384.1811656605588</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>97.04438339053223</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27593,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>316.1488790919085</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>70.8014752340375</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.21426855158856</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>86.42102276592109</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>188.8052277856828</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.0767430241442</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>76.48292817369615</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.151079231931362e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.042479087168223e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.215296897418019e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35500,10 +35500,10 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>725.3059354206565</v>
       </c>
       <c r="O12" t="n">
-        <v>310.4863393037384</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
@@ -35512,7 +35512,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>462.3874039146948</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>355.3681292881798</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303314</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>639.3093104120081</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>446.7972655274665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>564.161537400939</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>250.7532875461493</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>605.8017281075926</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>264.7306875349194</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303311</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37870,16 +37870,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>509.9122281478584</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38098,10 +38098,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38110,16 +38110,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>663.7376783068831</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3124083.010752211</v>
+        <v>3129022.273601244</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>82.88936558913161</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>141.6532280708862</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U4" t="n">
-        <v>190.271393580297</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>73.46100831328349</v>
       </c>
       <c r="G5" t="n">
-        <v>97.6352909288865</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,10 +1074,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.90848140332574</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>181.1611956319094</v>
+        <v>235.6395982067226</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>30.54110646053176</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686235</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>49.53862743923861</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>241.4592132962456</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>57.69520250663614</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>9.621991078756851</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>145.3941630732811</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>57.95965870878083</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>57.5645290049876</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>276.2330889766189</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.912423534854</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>961.9499065944426</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="D2" t="n">
-        <v>603.6842079876922</v>
+        <v>548.6555185181858</v>
       </c>
       <c r="E2" t="n">
-        <v>217.8959553894479</v>
+        <v>548.6555185181858</v>
       </c>
       <c r="F2" t="n">
-        <v>210.9504546402445</v>
+        <v>137.6696137285782</v>
       </c>
       <c r="G2" t="n">
-        <v>197.0270505788354</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>197.0270505788354</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4518,7 +4518,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
         <v>308.6274700262513</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.5099885583422</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C5" t="n">
-        <v>159.5099885583422</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D5" t="n">
-        <v>159.5099885583422</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E5" t="n">
-        <v>159.5099885583422</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F5" t="n">
-        <v>152.5644878091387</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>721.1507201626711</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>721.1507201626711</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>721.1507201626711</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>573.2376265802779</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F7" t="n">
-        <v>426.3476790823676</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>721.1507201626711</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>721.1507201626711</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>721.1507201626711</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>721.1507201626711</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>721.1507201626711</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>721.1507201626711</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>721.1507201626711</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>721.1507201626711</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>721.1507201626711</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4801,7 +4801,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,43 +4810,43 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="Y8" t="n">
         <v>2459.129294849817</v>
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355875</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.505047571597</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1333.825180851558</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790661</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>427.7268833816378</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C13" t="n">
-        <v>258.7907004537309</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>258.7907004537309</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>258.7907004537309</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>258.7907004537309</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>258.7907004537309</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488382</v>
+        <v>1255.018075309169</v>
       </c>
       <c r="V13" t="n">
-        <v>898.7925182488382</v>
+        <v>1255.018075309169</v>
       </c>
       <c r="W13" t="n">
-        <v>609.3753482118775</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="X13" t="n">
-        <v>609.3753482118775</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="Y13" t="n">
-        <v>609.3753482118775</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="14">
@@ -5366,7 +5366,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4950737902213</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4950737902213</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4950737902213</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4950737902213</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5475,13 +5475,13 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,40 +5500,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5700,19 +5700,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,28 +5737,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>275.872457296028</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5983,34 +5983,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6223,49 +6223,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6293,28 +6293,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,13 +6475,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6648,22 +6648,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6679,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515098</v>
@@ -6715,7 +6715,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6724,7 +6724,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6891,19 +6891,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6940,43 +6940,43 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,7 +7122,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
         <v>1158.436939387592</v>
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
         <v>97.21709146028587</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1219.892948359297</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>965.2084601534104</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>675.7912901164499</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7660,19 +7660,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270186</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>435.9238900028816</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>392.1113620226437</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>104.8749102765756</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>99.37520092829752</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>44.77813910233178</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>52.72404295763586</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>170.2099891031804</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>34.43781710865619</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>103.0576765518773</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>121.8723214731565</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>194.5731143188404</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>10.0042634219584</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>744790.5744110562</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110562</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>744790.5744110562</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="F2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="H2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>645197.9485672192</v>
       </c>
-      <c r="I2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672193</v>
-      </c>
       <c r="K2" t="n">
+        <v>645197.9485672198</v>
+      </c>
+      <c r="L2" t="n">
         <v>645197.9485672197</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>645197.9485672194</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645197.9485672197</v>
       </c>
       <c r="N2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672195</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.407704980418203e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768956</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865243</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26435,31 +26435,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="O4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="M4" t="n">
-        <v>22174.60758687072</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22174.60758687072</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22174.60758687073</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26493,10 +26493,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-161100.3649264448</v>
+        <v>-161100.364926445</v>
       </c>
       <c r="C6" t="n">
-        <v>428867.5142880998</v>
+        <v>428867.5142880995</v>
       </c>
       <c r="D6" t="n">
-        <v>428867.5142880996</v>
+        <v>428867.5142880992</v>
       </c>
       <c r="E6" t="n">
-        <v>4901.38729501438</v>
+        <v>5778.519428764556</v>
       </c>
       <c r="F6" t="n">
-        <v>530061.4237719104</v>
+        <v>530938.55590566</v>
       </c>
       <c r="G6" t="n">
-        <v>530061.4237719104</v>
+        <v>530938.55590566</v>
       </c>
       <c r="H6" t="n">
-        <v>530061.4237719103</v>
+        <v>530938.5559056599</v>
       </c>
       <c r="I6" t="n">
-        <v>530061.4237719106</v>
+        <v>530938.5559056599</v>
       </c>
       <c r="J6" t="n">
-        <v>353638.2045793174</v>
+        <v>354515.3367130666</v>
       </c>
       <c r="K6" t="n">
-        <v>530061.4237719107</v>
+        <v>530938.5559056604</v>
       </c>
       <c r="L6" t="n">
-        <v>530061.4237719105</v>
+        <v>530938.5559056603</v>
       </c>
       <c r="M6" t="n">
-        <v>395260.4085380734</v>
+        <v>396137.5406718228</v>
       </c>
       <c r="N6" t="n">
-        <v>530061.4237719105</v>
+        <v>530938.55590566</v>
       </c>
       <c r="O6" t="n">
-        <v>530061.4237719104</v>
+        <v>530938.5559056603</v>
       </c>
       <c r="P6" t="n">
-        <v>530061.4237719106</v>
+        <v>530938.5559056601</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370131</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>330.8948044316634</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>10.27808817397505</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U4" t="n">
-        <v>96.01048066168073</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>333.4150374284279</v>
       </c>
       <c r="G5" t="n">
-        <v>316.1488790919085</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.21426855158856</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.0767430241442</v>
+        <v>150.598340449331</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>136.7057146380961</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060689</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932186</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>725.3059354206565</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>387.2386125176837</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35734,10 +35734,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -36141,7 +36141,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.82538970349808</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
         <v>528.689756130333</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
